--- a/RA_Files/Week_7_Growth_Models_II/Codebook_EDB.xlsx
+++ b/RA_Files/Week_7_Growth_Models_II/Codebook_EDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emoriebeck/Documents/GitHub/R-tutorials/RA_Files/Week_6_Growth_Models_I/Week_7_Growth_Models_II/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emoriebeck/Documents/GitHub/R-tutorials/RA_Files/Week_7_Growth_Models_II/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49158098-4DED-EE48-A25F-049326501C2C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEFFE76-67E9-CB43-9A76-D093524ABFAD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{AB9A4637-E92E-5443-B3F7-EBD9D1F06B80}"/>
+    <workbookView xWindow="16840" yWindow="0" windowWidth="16760" windowHeight="21000" xr2:uid="{AB9A4637-E92E-5443-B3F7-EBD9D1F06B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -840,9 +840,6 @@
     <t>bfpsex</t>
   </si>
   <si>
-    <t>p1110105</t>
-  </si>
-  <si>
     <t>Overall Life Satisfaction </t>
   </si>
   <si>
@@ -864,34 +861,37 @@
     <t>match</t>
   </si>
   <si>
-    <t>p1110106</t>
-  </si>
-  <si>
-    <t>p1110107</t>
-  </si>
-  <si>
-    <t>p1110108</t>
-  </si>
-  <si>
-    <t>p1110109</t>
-  </si>
-  <si>
-    <t>p1110110</t>
-  </si>
-  <si>
-    <t>p1110111</t>
-  </si>
-  <si>
-    <t>p1110112</t>
-  </si>
-  <si>
-    <t>p1110113</t>
-  </si>
-  <si>
-    <t>p1110114</t>
-  </si>
-  <si>
-    <t>p1110115</t>
+    <t>vo154</t>
+  </si>
+  <si>
+    <t>wp142</t>
+  </si>
+  <si>
+    <t>xp149</t>
+  </si>
+  <si>
+    <t>yp15501</t>
+  </si>
+  <si>
+    <t>p15701</t>
+  </si>
+  <si>
+    <t>bap160</t>
+  </si>
+  <si>
+    <t>bbp15201</t>
+  </si>
+  <si>
+    <t>bcp51</t>
+  </si>
+  <si>
+    <t>bdp15801</t>
+  </si>
+  <si>
+    <t>bep151</t>
+  </si>
+  <si>
+    <t>bfo174</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:V189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7965,35 +7965,35 @@
     </row>
     <row r="175" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A175" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B175" t="s">
         <v>271</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>272</v>
-      </c>
-      <c r="C175" t="s">
-        <v>273</v>
       </c>
       <c r="D175">
         <v>2005</v>
       </c>
       <c r="E175" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F175"/>
       <c r="G175" t="s">
+        <v>274</v>
+      </c>
+      <c r="H175" t="s">
         <v>275</v>
       </c>
-      <c r="H175" t="s">
+      <c r="I175" t="s">
         <v>276</v>
       </c>
-      <c r="I175" t="s">
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175" t="s">
         <v>277</v>
-      </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-      <c r="K175" t="s">
-        <v>278</v>
       </c>
       <c r="L175" t="s">
         <v>24</v>
@@ -8014,32 +8014,32 @@
         <v>279</v>
       </c>
       <c r="B176" t="s">
+        <v>271</v>
+      </c>
+      <c r="C176" t="s">
         <v>272</v>
-      </c>
-      <c r="C176" t="s">
-        <v>273</v>
       </c>
       <c r="D176">
         <v>2006</v>
       </c>
       <c r="E176" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F176"/>
       <c r="G176" t="s">
+        <v>274</v>
+      </c>
+      <c r="H176" t="s">
         <v>275</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I176" t="s">
         <v>276</v>
       </c>
-      <c r="I176" t="s">
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176" t="s">
         <v>277</v>
-      </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-      <c r="K176" t="s">
-        <v>278</v>
       </c>
       <c r="L176" t="s">
         <v>24</v>
@@ -8060,32 +8060,32 @@
         <v>280</v>
       </c>
       <c r="B177" t="s">
+        <v>271</v>
+      </c>
+      <c r="C177" t="s">
         <v>272</v>
-      </c>
-      <c r="C177" t="s">
-        <v>273</v>
       </c>
       <c r="D177">
         <v>2007</v>
       </c>
       <c r="E177" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F177"/>
       <c r="G177" t="s">
+        <v>274</v>
+      </c>
+      <c r="H177" t="s">
         <v>275</v>
       </c>
-      <c r="H177" t="s">
+      <c r="I177" t="s">
         <v>276</v>
       </c>
-      <c r="I177" t="s">
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177" t="s">
         <v>277</v>
-      </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-      <c r="K177" t="s">
-        <v>278</v>
       </c>
       <c r="L177" t="s">
         <v>24</v>
@@ -8106,32 +8106,32 @@
         <v>281</v>
       </c>
       <c r="B178" t="s">
+        <v>271</v>
+      </c>
+      <c r="C178" t="s">
         <v>272</v>
-      </c>
-      <c r="C178" t="s">
-        <v>273</v>
       </c>
       <c r="D178">
         <v>2008</v>
       </c>
       <c r="E178" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F178"/>
       <c r="G178" t="s">
+        <v>274</v>
+      </c>
+      <c r="H178" t="s">
         <v>275</v>
       </c>
-      <c r="H178" t="s">
+      <c r="I178" t="s">
         <v>276</v>
       </c>
-      <c r="I178" t="s">
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178" t="s">
         <v>277</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178" t="s">
-        <v>278</v>
       </c>
       <c r="L178" t="s">
         <v>24</v>
@@ -8152,32 +8152,32 @@
         <v>282</v>
       </c>
       <c r="B179" t="s">
+        <v>271</v>
+      </c>
+      <c r="C179" t="s">
         <v>272</v>
-      </c>
-      <c r="C179" t="s">
-        <v>273</v>
       </c>
       <c r="D179">
         <v>2009</v>
       </c>
       <c r="E179" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F179"/>
       <c r="G179" t="s">
+        <v>274</v>
+      </c>
+      <c r="H179" t="s">
         <v>275</v>
       </c>
-      <c r="H179" t="s">
+      <c r="I179" t="s">
         <v>276</v>
       </c>
-      <c r="I179" t="s">
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179" t="s">
         <v>277</v>
-      </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="K179" t="s">
-        <v>278</v>
       </c>
       <c r="L179" t="s">
         <v>24</v>
@@ -8198,32 +8198,32 @@
         <v>283</v>
       </c>
       <c r="B180" t="s">
+        <v>271</v>
+      </c>
+      <c r="C180" t="s">
         <v>272</v>
-      </c>
-      <c r="C180" t="s">
-        <v>273</v>
       </c>
       <c r="D180">
         <v>2010</v>
       </c>
       <c r="E180" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F180"/>
       <c r="G180" t="s">
+        <v>274</v>
+      </c>
+      <c r="H180" t="s">
         <v>275</v>
       </c>
-      <c r="H180" t="s">
+      <c r="I180" t="s">
         <v>276</v>
       </c>
-      <c r="I180" t="s">
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180" t="s">
         <v>277</v>
-      </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
-      <c r="K180" t="s">
-        <v>278</v>
       </c>
       <c r="L180" t="s">
         <v>24</v>
@@ -8244,32 +8244,32 @@
         <v>284</v>
       </c>
       <c r="B181" t="s">
+        <v>271</v>
+      </c>
+      <c r="C181" t="s">
         <v>272</v>
-      </c>
-      <c r="C181" t="s">
-        <v>273</v>
       </c>
       <c r="D181">
         <v>2011</v>
       </c>
       <c r="E181" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F181"/>
       <c r="G181" t="s">
+        <v>274</v>
+      </c>
+      <c r="H181" t="s">
         <v>275</v>
       </c>
-      <c r="H181" t="s">
+      <c r="I181" t="s">
         <v>276</v>
       </c>
-      <c r="I181" t="s">
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181" t="s">
         <v>277</v>
-      </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
-      <c r="K181" t="s">
-        <v>278</v>
       </c>
       <c r="L181" t="s">
         <v>24</v>
@@ -8290,32 +8290,32 @@
         <v>285</v>
       </c>
       <c r="B182" t="s">
+        <v>271</v>
+      </c>
+      <c r="C182" t="s">
         <v>272</v>
-      </c>
-      <c r="C182" t="s">
-        <v>273</v>
       </c>
       <c r="D182">
         <v>2012</v>
       </c>
       <c r="E182" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F182"/>
       <c r="G182" t="s">
+        <v>274</v>
+      </c>
+      <c r="H182" t="s">
         <v>275</v>
       </c>
-      <c r="H182" t="s">
+      <c r="I182" t="s">
         <v>276</v>
       </c>
-      <c r="I182" t="s">
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182" t="s">
         <v>277</v>
-      </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
-      <c r="K182" t="s">
-        <v>278</v>
       </c>
       <c r="L182" t="s">
         <v>24</v>
@@ -8336,32 +8336,32 @@
         <v>286</v>
       </c>
       <c r="B183" t="s">
+        <v>271</v>
+      </c>
+      <c r="C183" t="s">
         <v>272</v>
-      </c>
-      <c r="C183" t="s">
-        <v>273</v>
       </c>
       <c r="D183">
         <v>2013</v>
       </c>
       <c r="E183" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F183"/>
       <c r="G183" t="s">
+        <v>274</v>
+      </c>
+      <c r="H183" t="s">
         <v>275</v>
       </c>
-      <c r="H183" t="s">
+      <c r="I183" t="s">
         <v>276</v>
       </c>
-      <c r="I183" t="s">
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183" t="s">
         <v>277</v>
-      </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-      <c r="K183" t="s">
-        <v>278</v>
       </c>
       <c r="L183" t="s">
         <v>24</v>
@@ -8382,32 +8382,32 @@
         <v>287</v>
       </c>
       <c r="B184" t="s">
+        <v>271</v>
+      </c>
+      <c r="C184" t="s">
         <v>272</v>
-      </c>
-      <c r="C184" t="s">
-        <v>273</v>
       </c>
       <c r="D184">
         <v>2014</v>
       </c>
       <c r="E184" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F184"/>
       <c r="G184" t="s">
+        <v>274</v>
+      </c>
+      <c r="H184" t="s">
         <v>275</v>
       </c>
-      <c r="H184" t="s">
+      <c r="I184" t="s">
         <v>276</v>
       </c>
-      <c r="I184" t="s">
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184" t="s">
         <v>277</v>
-      </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-      <c r="K184" t="s">
-        <v>278</v>
       </c>
       <c r="L184" t="s">
         <v>24</v>
@@ -8428,32 +8428,32 @@
         <v>288</v>
       </c>
       <c r="B185" t="s">
+        <v>271</v>
+      </c>
+      <c r="C185" t="s">
         <v>272</v>
-      </c>
-      <c r="C185" t="s">
-        <v>273</v>
       </c>
       <c r="D185">
         <v>2015</v>
       </c>
       <c r="E185" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F185"/>
       <c r="G185" t="s">
+        <v>274</v>
+      </c>
+      <c r="H185" t="s">
         <v>275</v>
       </c>
-      <c r="H185" t="s">
+      <c r="I185" t="s">
         <v>276</v>
       </c>
-      <c r="I185" t="s">
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185" t="s">
         <v>277</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-      <c r="K185" t="s">
-        <v>278</v>
       </c>
       <c r="L185" t="s">
         <v>24</v>

--- a/RA_Files/Week_7_Growth_Models_II/Codebook_EDB.xlsx
+++ b/RA_Files/Week_7_Growth_Models_II/Codebook_EDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emoriebeck/Documents/GitHub/R-tutorials/RA_Files/Week_7_Growth_Models_II/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEFFE76-67E9-CB43-9A76-D093524ABFAD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA128730-16F8-2B47-BEC8-F607CDBC84B5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16840" yWindow="0" windowWidth="16760" windowHeight="21000" xr2:uid="{AB9A4637-E92E-5443-B3F7-EBD9D1F06B80}"/>
   </bookViews>
@@ -861,9 +861,6 @@
     <t>match</t>
   </si>
   <si>
-    <t>vo154</t>
-  </si>
-  <si>
     <t>wp142</t>
   </si>
   <si>
@@ -873,9 +870,6 @@
     <t>yp15501</t>
   </si>
   <si>
-    <t>p15701</t>
-  </si>
-  <si>
     <t>bap160</t>
   </si>
   <si>
@@ -891,7 +885,13 @@
     <t>bep151</t>
   </si>
   <si>
-    <t>bfo174</t>
+    <t>vp154</t>
+  </si>
+  <si>
+    <t>zp15701</t>
+  </si>
+  <si>
+    <t>bfp174</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:V189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185"/>
+      <selection activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="175" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A175" s="6" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B175" t="s">
         <v>271</v>
@@ -8011,7 +8011,7 @@
     </row>
     <row r="176" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A176" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B176" t="s">
         <v>271</v>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="177" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A177" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B177" t="s">
         <v>271</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="178" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A178" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B178" t="s">
         <v>271</v>
@@ -8149,7 +8149,7 @@
     </row>
     <row r="179" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A179" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B179" t="s">
         <v>271</v>
@@ -8195,7 +8195,7 @@
     </row>
     <row r="180" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A180" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B180" t="s">
         <v>271</v>
@@ -8241,7 +8241,7 @@
     </row>
     <row r="181" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A181" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B181" t="s">
         <v>271</v>
@@ -8287,7 +8287,7 @@
     </row>
     <row r="182" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A182" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B182" t="s">
         <v>271</v>
@@ -8333,7 +8333,7 @@
     </row>
     <row r="183" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A183" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B183" t="s">
         <v>271</v>
@@ -8379,7 +8379,7 @@
     </row>
     <row r="184" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A184" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B184" t="s">
         <v>271</v>
